--- a/spreadsheet/blob_storage_security_checklist.pt.xlsx
+++ b/spreadsheet/blob_storage_security_checklist.pt.xlsx
@@ -2504,7 +2504,7 @@
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>As contas de armazenamento recém-criadas são criadas usando o modelo de implantação do ARM, de modo que o RBAC, a auditoria etc. estão todos habilitados. Verifique se não há contas de armazenamento antigas com o modelo de implantação clássico em uma assinatura</t>
+          <t>As contas de armazenamento recém-criadas são criadas usando o modelo de implantação do ARM, para que o RBAC, a auditoria, etc., sejam todos habilitados. Verifique se não há contas de armazenamento antigas com o modelo de implantação clássico em uma assinatura</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
